--- a/DateBase/orders/Dang Nguyen_2025-10-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-11.xlsx
@@ -1139,6 +1139,9 @@
       <c r="G2" t="str">
         <v>0101110152020502020101015151115142015152155161515152010415924315101011204030301010202030306101011041010112015145101051551571625510302010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
